--- a/1 - Documentos/Carga Masiva.xlsx
+++ b/1 - Documentos/Carga Masiva.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Mimet\MiLogistic\Despacho\1 - Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A25C5A8-7768-4D34-9834-DB1B356D659B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="+FT2744KSyqe7vmkdncBS5u1MGTHTzZZ42KPNki1qkXNRAJL3sEj0hcKtqv4VgYgJm2pvsKE++hhQaKStGPo2Q==" workbookSaltValue="u6TrE+AE+rS+Bi9xBE3B2w==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E6A0EF-027E-4FC9-8E15-62B0491567C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="2415" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CargaMasivaDetalle" sheetId="3" r:id="rId1"/>
-    <sheet name="Datos" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Datos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ANTOFAGASTA">Datos!$G$10:$G$18</definedName>
@@ -1401,16 +1400,16 @@
     <tableColumn id="6" xr3:uid="{06A1054C-892B-4E1B-9CA3-EA0BB86B6BF4}" name="NombreCliente" dataDxfId="12"/>
     <tableColumn id="7" xr3:uid="{4AB43F41-CA43-43A7-953A-95DFE7C8B3EF}" name="CalleDireccionCliente" dataDxfId="11"/>
     <tableColumn id="8" xr3:uid="{03E3D881-5E40-41AB-8D4E-0886EA2C1F33}" name="NumeroDireccionCliente" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{7B13279E-DECF-4C02-A2DC-CA8F2B9795B7}" name="RegionCliente" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{DDFF9974-D1C1-4996-96AC-49954150B93F}" name="ComunaCliente" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{FDBCF644-1328-42E5-871C-FBF5404F4648}" name="NumeroTelefonoContacto" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{6944327B-D692-42E6-9132-EC33F6213809}" name="NumeroTelefonoContactoAdicional" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{31E98D23-7B57-422A-AB80-8FFA0378792F}" name="RutCliente" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{9618FD29-F951-47BB-AEB8-ED0704F5ABAF}" name="UnidadNegocio" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{60D5F472-48C8-47B5-B7EF-292E1BA956D5}" name="Gerencia" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{DB3A4AFE-C572-4042-83D6-07AA8F6B0F5F}" name="ObservacionAof" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{6030BB0D-7DD6-4C8C-98D5-42A096A38E65}" name="Prioridad" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{B05B741D-917A-4F62-921C-986F94F056E1}" name="Placa" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{7B13279E-DECF-4C02-A2DC-CA8F2B9795B7}" name="RegionCliente" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{DDFF9974-D1C1-4996-96AC-49954150B93F}" name="ComunaCliente" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{FDBCF644-1328-42E5-871C-FBF5404F4648}" name="NumeroTelefonoContacto" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{6944327B-D692-42E6-9132-EC33F6213809}" name="NumeroTelefonoContactoAdicional" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{31E98D23-7B57-422A-AB80-8FFA0378792F}" name="RutCliente" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{9618FD29-F951-47BB-AEB8-ED0704F5ABAF}" name="UnidadNegocio" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{60D5F472-48C8-47B5-B7EF-292E1BA956D5}" name="Gerencia" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{DB3A4AFE-C572-4042-83D6-07AA8F6B0F5F}" name="ObservacionAof" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{6030BB0D-7DD6-4C8C-98D5-42A096A38E65}" name="Prioridad" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{B05B741D-917A-4F62-921C-986F94F056E1}" name="Placa" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1780,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CBA57C-81D0-48AB-85C2-9B669FBF9B3F}">
   <dimension ref="A1:R1562"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33164,7 +33163,6 @@
       <c r="R1562" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DzmAwbHExso01xE7re4SoZ+DYcpg67s5X9Zx3ECQviL2ASzqnTUGyJaviibBNKrmGispyFA6kUqXw4AE++9j3g==" saltValue="kOLhS/5gQHcTg6byryOY0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="A2:R1048576" name="Tabla"/>
   </protectedRanges>
@@ -33209,8 +33207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:I348"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
